--- a/target/classes/com/lakme/testdata/TestDataLakme.xlsx
+++ b/target/classes/com/lakme/testdata/TestDataLakme.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAB1B42-6BFC-41B4-BDB4-92C2FD534DF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118958D6-21B5-4BFC-AF25-2AB2C82503DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="validLoginCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="Invalidusername" sheetId="3" r:id="rId2"/>
+    <sheet name="TC_Login_06" sheetId="4" r:id="rId3"/>
+    <sheet name="InvalidPassword" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,38 +22,78 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{7C4CD515-A88C-408C-9722-1BD0D6C03B70}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>Passwrod</t>
   </si>
   <si>
-    <t>Bindu</t>
+    <t>emailID</t>
   </si>
   <si>
-    <t>xyz</t>
+    <t>bindu.gadapa7@gmail.com</t>
   </si>
   <si>
-    <t>Manoj</t>
+    <t>Sadana@113789</t>
   </si>
   <si>
-    <t>SP</t>
+    <t>Sadana@113</t>
+  </si>
+  <si>
+    <t>bindu.gadapa71@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -76,14 +119,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -361,11 +407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -376,29 +422,135 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{822C1207-B6B9-4377-BFC7-C3BC1AEC239D}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{2C40F040-0E05-419C-8538-54FFA27B58B2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800CD663-DA0F-45A3-A6D1-ECDDE89B4EC9}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{979B2D03-1108-40C1-92FD-ECAE655A7C00}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{0176D3E8-8E73-4288-9F93-0E7D0187934E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE89388-D618-4B53-903F-082C65149D3E}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{0F3A9B8A-AA2A-4855-893F-B5B19F2871DF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DC2167-FEBB-4C1D-985C-BD3D7526C445}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D26086CC-AD55-4973-9A92-163226BC0CDB}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{76F633A6-1027-4F7C-B646-1AC755F2371F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>